--- a/dist/checklists/extended/xlsx/mixs/stx_fish_mixs_extended.xlsx
+++ b/dist/checklists/extended/xlsx/mixs/stx_fish_mixs_extended.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="350">
   <si>
     <t>Study ID</t>
   </si>
@@ -35,9 +35,33 @@
     <t>Workflow</t>
   </si>
   <si>
+    <t>Negative Control Type</t>
+  </si>
+  <si>
+    <t>Positive Control Type</t>
+  </si>
+  <si>
+    <t>Experimental Factor</t>
+  </si>
+  <si>
+    <t>Relevant Electronic Resources</t>
+  </si>
+  <si>
     <t>Workflow (optional)</t>
   </si>
   <si>
+    <t>Negative Control Type (optional)</t>
+  </si>
+  <si>
+    <t>Positive Control Type (optional)</t>
+  </si>
+  <si>
+    <t>Experimental Factor (optional)</t>
+  </si>
+  <si>
+    <t>Relevant Electronic Resources (optional)</t>
+  </si>
+  <si>
     <t>A unique alphanumeric identifier for this study</t>
   </si>
   <si>
@@ -68,6 +92,30 @@
     <t>e.g. spatial_transcriptomics</t>
   </si>
   <si>
+    <t>The substance or equipment used as a negative control in an investigation</t>
+  </si>
+  <si>
+    <t>e.g. Phosphate buffer</t>
+  </si>
+  <si>
+    <t>The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive</t>
+  </si>
+  <si>
+    <t>e.g. substance1</t>
+  </si>
+  <si>
+    <t>Variable aspects of an experiment design that can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. This field accepts ontology terms from Experimental Factor Ontology (EFO) and/or Ontology for Biomedical Investigations (OBI)</t>
+  </si>
+  <si>
+    <t>e.g. time series design</t>
+  </si>
+  <si>
+    <t>A related resource that is referenced, cited, or otherwise associated to the sequence.</t>
+  </si>
+  <si>
+    <t>e.g. https://arctos.database.museum/media/10520962 | https://arctos.database.museum/media/10520964</t>
+  </si>
+  <si>
     <t>FILL OUT INFORMATION BELOW THIS ROW</t>
   </si>
   <si>
@@ -107,19 +155,76 @@
     <t>Geographic Location (Latitude and Longitude)</t>
   </si>
   <si>
-    <t>Associated Resource</t>
-  </si>
-  <si>
     <t>Depth</t>
   </si>
   <si>
-    <t>Elev</t>
-  </si>
-  <si>
-    <t>Samp Size</t>
-  </si>
-  <si>
-    <t>Latitude Longitude</t>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Amount or Size of Sample Collected</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>Library Screening Strategy</t>
+  </si>
+  <si>
+    <t>Reference Database(s)</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Isolation and Growth Condition</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>Source Material ID</t>
+  </si>
+  <si>
+    <t>Ploidy</t>
+  </si>
+  <si>
+    <t>Known Pathogenicity</t>
+  </si>
+  <si>
+    <t>Propagation</t>
+  </si>
+  <si>
+    <t>Sample Collection Device</t>
+  </si>
+  <si>
+    <t>Observed Biotic Relationship</t>
+  </si>
+  <si>
+    <t>Reference for Biomaterial</t>
+  </si>
+  <si>
+    <t>Host Specificity or Range</t>
+  </si>
+  <si>
+    <t>Taxonomic Identity Marker</t>
+  </si>
+  <si>
+    <t>Trophic Level</t>
+  </si>
+  <si>
+    <t>Subspecific Genetic Lineage</t>
+  </si>
+  <si>
+    <t>Host Disease Status</t>
+  </si>
+  <si>
+    <t>Sample Collection Method</t>
+  </si>
+  <si>
+    <t>Taxonomy ID of DNA Sample</t>
+  </si>
+  <si>
+    <t>Taxonomic Classification</t>
   </si>
   <si>
     <t>Tissue (optional)</t>
@@ -131,19 +236,76 @@
     <t>Geographic Location (Latitude and Longitude) (optional)</t>
   </si>
   <si>
-    <t>Associated Resource (optional)</t>
-  </si>
-  <si>
     <t>Depth (optional)</t>
   </si>
   <si>
-    <t>Elev (optional)</t>
-  </si>
-  <si>
-    <t>Samp Size (optional)</t>
-  </si>
-  <si>
-    <t>Latitude Longitude (optional)</t>
+    <t>Elevation (optional)</t>
+  </si>
+  <si>
+    <t>Amount or Size of Sample Collected (optional)</t>
+  </si>
+  <si>
+    <t>Sample Name (optional)</t>
+  </si>
+  <si>
+    <t>Library Screening Strategy (optional)</t>
+  </si>
+  <si>
+    <t>Reference Database(s) (optional)</t>
+  </si>
+  <si>
+    <t>Temperature (optional)</t>
+  </si>
+  <si>
+    <t>Isolation and Growth Condition (optional)</t>
+  </si>
+  <si>
+    <t>Altitude (optional)</t>
+  </si>
+  <si>
+    <t>Source Material ID (optional)</t>
+  </si>
+  <si>
+    <t>Ploidy (optional)</t>
+  </si>
+  <si>
+    <t>Known Pathogenicity (optional)</t>
+  </si>
+  <si>
+    <t>Propagation (optional)</t>
+  </si>
+  <si>
+    <t>Sample Collection Device (optional)</t>
+  </si>
+  <si>
+    <t>Observed Biotic Relationship (optional)</t>
+  </si>
+  <si>
+    <t>Reference for Biomaterial (optional)</t>
+  </si>
+  <si>
+    <t>Host Specificity or Range (optional)</t>
+  </si>
+  <si>
+    <t>Taxonomic Identity Marker (optional)</t>
+  </si>
+  <si>
+    <t>Trophic Level (optional)</t>
+  </si>
+  <si>
+    <t>Subspecific Genetic Lineage (optional)</t>
+  </si>
+  <si>
+    <t>Host Disease Status (optional)</t>
+  </si>
+  <si>
+    <t>Sample Collection Method (optional)</t>
+  </si>
+  <si>
+    <t>Taxonomy ID of DNA Sample (optional)</t>
+  </si>
+  <si>
+    <t>Taxonomic Classification (optional)</t>
   </si>
   <si>
     <t>A unique alphanumeric reference or identifier for the study.</t>
@@ -158,46 +320,157 @@
     <t>e.g. Leaf</t>
   </si>
   <si>
-    <t>The date when the sample was collected with year, month and day specified in the format, YYYY-MM-DD.</t>
+    <t>The time of sampling, either as an instance (single point in time) or interval. In case no exact time is available, the date/time can be right truncated i.e. all of these are valid times: 2008-01-23T19:23:10+00:00; 2008-01-23T19:23:10; 2008-01-23; 2008-01; 2008; Except: 2008-01; 2008 all are ISO8601 compliant</t>
   </si>
   <si>
     <t>e.g. 2024-09-20</t>
   </si>
   <si>
-    <t>The geographic latitude where the specimen or sample was taken in decimal degrees, between -90 and 90. Locations should be specified to a minimum of 3 decimal places and a maximum of 8 decimal places.</t>
+    <t>The geographical origin of the sample as defined by latitude and longitude. The values should be reported in decimal degrees, limited to 8 decimal points, and in WGS84 system</t>
   </si>
   <si>
     <t>e.g. 52.2053</t>
   </si>
   <si>
-    <t>A related resource that is referenced, cited, or otherwise associated to the sequence.</t>
-  </si>
-  <si>
-    <t>e.g. https://arctos.database.museum/media/10520962 | https://arctos.database.museum/media/10520964</t>
-  </si>
-  <si>
-    <t>The greater depth of a range of depth below the local surface, in metres.</t>
+    <t>The vertical distance below local surface. For sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples</t>
   </si>
   <si>
     <t>e.g. 200</t>
   </si>
   <si>
-    <t>The upper limit of the range of elevation (altitude, usually above sea level), in metres.</t>
+    <t>Elevation of the sampling site is its height above a fixed reference point, most commonly the mean sea level. Elevation is mainly used when referring to points on the earth's surface, while altitude is used for points above the surface, such as an aircraft in flight or a spacecraft in orbit</t>
   </si>
   <si>
     <t>e.g. 1236</t>
   </si>
   <si>
-    <t>A numeric value for a measurement of the size (time duration, length, area, or volume) of a sample in a sampling dwc:Event.</t>
-  </si>
-  <si>
-    <t>e.g. 5</t>
-  </si>
-  <si>
-    <t>The verbatim original spatial coordinates of the dcterms:Location. The coordinate ellipsoid, geodeticDatum, or full Spatial Reference System (SRS) for these coordinates should be stored in dwc:verbatimSRS and the coordinate system should be stored in dwc:verbatimCoordinateSystem.</t>
-  </si>
-  <si>
-    <t>e.g. 41 05 54S 121 05 34W</t>
+    <t>The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected</t>
+  </si>
+  <si>
+    <t>e.g. 5 litre</t>
+  </si>
+  <si>
+    <t>A unique local identifier or name that for the material sample used for extracting nucleic acids, and subsequent sequencing. It can refer either to the original material collected or to any derived sub-samples. It can have any format, but we suggest that you make it concise, unique and consistent within your lab, and as informative as possible.</t>
+  </si>
+  <si>
+    <t>e.g. ISDsoil1</t>
+  </si>
+  <si>
+    <t>Specific enrichment or screening methods applied before and/or after creating libraries</t>
+  </si>
+  <si>
+    <t>e.g. Enriched</t>
+  </si>
+  <si>
+    <t>List of database(s) used for ORF annotation, along with version number and reference to website or publication</t>
+  </si>
+  <si>
+    <t>e.g. pVOGs;5;http://dmk-brain.ecn.uiowa.edu/pVOGs/ Grazziotin et al. 2017 doi:10.1093/nar/gkw9</t>
+  </si>
+  <si>
+    <t>Temperature of the sample at the time of sampling in degree celsius</t>
+  </si>
+  <si>
+    <t>e.g. 25</t>
+  </si>
+  <si>
+    <t>Publication reference in the form of pubmed ID (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material</t>
+  </si>
+  <si>
+    <t>e.g. doi:10.1016/j.syapm.2018.01.009</t>
+  </si>
+  <si>
+    <t>Heights of objects such as airplanes, space shuttles, rockets, atmospheric balloons and heights of places such as atmospheric layers and clouds in metres (m). It is used to measure the height of an object which is above the earth's surface. In this context, the altitude measurement is the vertical distance between the earth's surface above sea level and the sampled position in the air</t>
+  </si>
+  <si>
+    <t>e.g. 100</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples. The INSDC qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field.</t>
+  </si>
+  <si>
+    <t>e.g. MPI012345</t>
+  </si>
+  <si>
+    <t>The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). It has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly)</t>
+  </si>
+  <si>
+    <t>e.g. allopolyploidy</t>
+  </si>
+  <si>
+    <t>To what is the entity pathogenic</t>
+  </si>
+  <si>
+    <t>e.g. Animal</t>
+  </si>
+  <si>
+    <t>The type of reproduction from the parent stock. Values for this field is specific to different taxa.</t>
+  </si>
+  <si>
+    <t>e.g. lytic</t>
+  </si>
+  <si>
+    <t>The device used to collect an environmental sample.</t>
+  </si>
+  <si>
+    <t>e.g. sampleDevice</t>
+  </si>
+  <si>
+    <t>Description of relationship(s) between the subject organism and other organism(s) it is associated with.</t>
+  </si>
+  <si>
+    <t>e.g. Free living</t>
+  </si>
+  <si>
+    <t>Primary publication if isolated before genome publication; otherwise, primary genome report</t>
+  </si>
+  <si>
+    <t>The range and diversity of host species that an organism is capable of infecting, defined by NCBI taxonomy identifier</t>
+  </si>
+  <si>
+    <t>e.g. 9606</t>
+  </si>
+  <si>
+    <t>The phylogenetic marker(s) used to assign an organism name to the SAG or MAG</t>
+  </si>
+  <si>
+    <t>e.g. Other</t>
+  </si>
+  <si>
+    <t>Trophic levels are the feeding position in a food chain. Microbes can be a range of producers (e.g. chemolithotroph)</t>
+  </si>
+  <si>
+    <t>e.g. heterotroph</t>
+  </si>
+  <si>
+    <t>Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like Group I plasmid. Subspecies should not be recorded in this term, but in the NCBI taxonomy. Supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123</t>
+  </si>
+  <si>
+    <t>e.g. serovar:Newport</t>
+  </si>
+  <si>
+    <t>List of diseases with which the host has been diagnosed; can include multiple diagnoses. The value of the field depends on host; for humans the terms should be chosen from the DO (Human Disease Ontology) at https://www.disease-ontology.org, non-human host diseases are free text</t>
+  </si>
+  <si>
+    <t>e.g. bacterial esophagitis</t>
+  </si>
+  <si>
+    <t>The method employed for collecting the sample</t>
+  </si>
+  <si>
+    <t>e.g. Caught with a net</t>
+  </si>
+  <si>
+    <t>NCBI taxon id of the sample. Maybe be a single taxon or mixed taxa sample. Use 'synthetic metagenome for mock community/positive controls, or 'blank sample' for negative controls</t>
+  </si>
+  <si>
+    <t>e.g. Gut Metagenome [NCBITaxon:749906]</t>
+  </si>
+  <si>
+    <t>Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes</t>
+  </si>
+  <si>
+    <t>e.g. vConTACT vContact2</t>
   </si>
   <si>
     <t>Abdomen</t>
@@ -420,6 +693,99 @@
   </si>
   <si>
     <t>Whole Plant</t>
+  </si>
+  <si>
+    <t>Autotroph</t>
+  </si>
+  <si>
+    <t>Carboxydotroph</t>
+  </si>
+  <si>
+    <t>Chemoautolithotroph</t>
+  </si>
+  <si>
+    <t>Chemoautotroph</t>
+  </si>
+  <si>
+    <t>Chemoheterotroph</t>
+  </si>
+  <si>
+    <t>Chemolithoautotroph</t>
+  </si>
+  <si>
+    <t>Chemolithotroph</t>
+  </si>
+  <si>
+    <t>Chemoorganoheterotroph</t>
+  </si>
+  <si>
+    <t>Chemoorganotroph</t>
+  </si>
+  <si>
+    <t>Chemosynthetic</t>
+  </si>
+  <si>
+    <t>Chemotroph</t>
+  </si>
+  <si>
+    <t>Copiotroph</t>
+  </si>
+  <si>
+    <t>Diazotroph</t>
+  </si>
+  <si>
+    <t>Facultative</t>
+  </si>
+  <si>
+    <t>Heterotroph</t>
+  </si>
+  <si>
+    <t>Lithoautotroph</t>
+  </si>
+  <si>
+    <t>Lithoheterotroph</t>
+  </si>
+  <si>
+    <t>Lithotroph</t>
+  </si>
+  <si>
+    <t>Methanotroph</t>
+  </si>
+  <si>
+    <t>Methylotroph</t>
+  </si>
+  <si>
+    <t>Mixotroph</t>
+  </si>
+  <si>
+    <t>Obligate</t>
+  </si>
+  <si>
+    <t>Oligotroph</t>
+  </si>
+  <si>
+    <t>Organoheterotroph</t>
+  </si>
+  <si>
+    <t>Organotroph</t>
+  </si>
+  <si>
+    <t>Photoautotroph</t>
+  </si>
+  <si>
+    <t>Photoheterotroph</t>
+  </si>
+  <si>
+    <t>Photolithoautotroph</t>
+  </si>
+  <si>
+    <t>Photolithotroph</t>
+  </si>
+  <si>
+    <t>Photosynthetic</t>
+  </si>
+  <si>
+    <t>Phototroph</t>
   </si>
   <si>
     <t>Imaging Protocol ID</t>
@@ -1068,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1079,619 +1445,102 @@
     <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.140625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(A1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
-      <formula1>AND(LEN(A5)&gt;0, A5=TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ0123456789")), MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "")))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1005">
-      <formula1>AND(LEN(B5)&gt;0, EXACT(B5, LOWER(B5)), B5=SUBSTITUTE(B5, " ", ""))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
-      <formula1>AND(LEN(C5)&gt;0, EXACT(C5, LOWER(C5)), C5=SUBSTITUTE(C5, " ", ""))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
-      <formula1>AND(ISNUMBER(FIND("@", D5)), FIND(".", D5, FIND("@", D5)) &gt; FIND("@", D5))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
-      <formula1>HiddenDropdowns!$E$5:$E$12</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:E78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
-        <v>133</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="183.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="110.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="252.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="115.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="240.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="95.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1714,6 +1563,878 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
+      <formula1>AND(LEN(A5)&gt;0, A5=TEXTJOIN("", TRUE, IF(ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ0123456789")), MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "")))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1005">
+      <formula1>AND(LEN(B5)&gt;0, EXACT(B5, LOWER(B5)), B5=SUBSTITUTE(B5, " ", ""))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
+      <formula1>AND(LEN(C5)&gt;0, EXACT(C5, LOWER(C5)), C5=SUBSTITUTE(C5, " ", ""))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
+      <formula1>AND(ISNUMBER(FIND("@", D5)), FIND(".", D5, FIND("@", D5)) &gt; FIND("@", D5))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
+      <formula1>HiddenDropdowns!$E$5:$E$12</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
+      <formula1>"Distilled Water,Dna-Free Pcr Mix,Empty Collection Device,Empty Collection Tube,Phosphate Buffer,Sterile Swab,Sterile Syringe"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(G5, ROW(INDIRECT("1:"&amp;LEN(G5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(I5, ROW(INDIRECT("1:"&amp;LEN(I5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5:W78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:23">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" t="s">
+        <v>159</v>
+      </c>
+      <c r="W13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="W14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="W15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="W16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="W17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+      <c r="W18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="W19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+      <c r="W20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="W21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="W22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="W23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="W24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="W25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="W26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" t="s">
+        <v>174</v>
+      </c>
+      <c r="W28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="W29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" t="s">
+        <v>176</v>
+      </c>
+      <c r="W30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" t="s">
+        <v>177</v>
+      </c>
+      <c r="W31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="W32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23">
+      <c r="B33" t="s">
+        <v>179</v>
+      </c>
+      <c r="W33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="W34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="W35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="B40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="B47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="155.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="171.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="249.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="99" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="146.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="197.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="85.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="83.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="103.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="71.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="102.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="253" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="161.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="127.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:AB4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:AB4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="18">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="B5:B1005">
@@ -1722,20 +2443,50 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
       <formula1>AND(ISNUMBER(SEARCH("T", C5)), ISNUMBER(DATEVALUE(LEFT(C5, FIND("T", C5)-1))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(F5, ROW(INDIRECT("1:"&amp;LEN(F5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(G5, ROW(INDIRECT("1:"&amp;LEN(G5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(H5, ROW(INDIRECT("1:"&amp;LEN(H5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(I5, ROW(INDIRECT("1:"&amp;LEN(I5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="I5:I1005">
+      <formula1>"Enriched,Normalised,Screened"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(J5, ROW(INDIRECT("1:"&amp;LEN(J5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(N5, ROW(INDIRECT("1:"&amp;LEN(N5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="P5:P1005">
+      <formula1>"Animal,Bacteria,Fungi,Human,Plant"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="Q5:Q1005">
+      <formula1>"Asexual,Incompatibility Group,Lysogenic,Lytic,Obligately Lytic,Sexual,Temperate"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(R5, ROW(INDIRECT("1:"&amp;LEN(R5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="S5:S1005">
+      <formula1>"Commensalism,Free Living,Mutualism,Parasitism,Symbiotic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="T5:T1005">
+      <formula1>"Finished Genome,Genome Fragment(S),High-Quality Draft Genome,Low-Quality Draft Genome,Medium-Quality Draft Genome"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(U5, ROW(INDIRECT("1:"&amp;LEN(U5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="V5:V1005">
+      <formula1>"16S Rrna Gene,Multi-Marker Approach,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="W5:W1005">
+      <formula1>HiddenDropdowns!$W$5:$W$35</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(X5, ROW(INDIRECT("1:"&amp;LEN(X5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5:Y1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(Y5, ROW(INDIRECT("1:"&amp;LEN(Y5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB5:AB1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(AB5, ROW(INDIRECT("1:"&amp;LEN(AB5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1779,238 +2530,238 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>163</v>
+        <v>285</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>164</v>
+        <v>286</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>166</v>
+        <v>288</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>145</v>
+        <v>267</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>174</v>
+        <v>296</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>187</v>
+        <v>309</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>209</v>
+        <v>331</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>210</v>
+        <v>332</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>212</v>
+        <v>334</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>214</v>
+        <v>336</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>220</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>190</v>
+        <v>312</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>202</v>
+        <v>324</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>204</v>
+        <v>326</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>211</v>
+        <v>333</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>213</v>
+        <v>335</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2134,40 +2885,40 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>175</v>
+        <v>297</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>226</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>227</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
